--- a/Healthcare/LNTH.xlsx
+++ b/Healthcare/LNTH.xlsx
@@ -8,22 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26B7B50-543E-E541-9C9D-BE76F1DF3CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A8B8A-F18C-E149-98D2-9EE463664964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -633,6 +624,39 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -647,39 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,7 +1011,7 @@
                   <c:v>238000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50700000</c:v>
+                  <c:v>507000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>606500000</c:v>
@@ -1951,9 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>126.8899</v>
     <v>50.2</v>
-    <v>0.51900000000000002</v>
-    <v>-23.79</v>
-    <v>-0.20694199999999999</v>
+    <v>0.48089999999999999</v>
+    <v>-2.855</v>
+    <v>-3.1315000000000003E-2</v>
+    <v>0.255</v>
+    <v>2.8870000000000002E-3</v>
     <v>USD</v>
     <v>Lantheus Holdings, Inc. is a radiopharmaceutical-focused company engaged in delivering science to enable clinicians to find, fight and follow disease to deliver patient outcomes. The Company classifies its products in three categories: Radiopharmaceutical Oncology, Precision Diagnostics, and Strategic Partnerships. Its Radiopharmaceutical Oncology diagnostics and therapeutic candidates help healthcare professionals (HCPs) find, fight, and follow cancer, with a focus in prostate cancer. Its pipeline also includes breast and other cancers. Its Precision Diagnostic products assist HCPs to find and follow diseases, with a focus in cardiology. Its Strategic Partnerships focus on enabling precision medicine through the use of biomarkers, digital solutions and pharma solutions platforms. Its commercial products include PYLARIFY, DEFINITY, Ga-DOTA-RM2, and others. Its pipeline includes B amyloid positron emission tomography (PET) imaging agent, NAV-4694, also known as F18-flutafuranol.</v>
     <v>834</v>
@@ -1961,24 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>331 Treble Cove Rd, NORTH BILLERICA, MA, 01862 US</v>
-    <v>102.4999</v>
+    <v>95.43</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45602.937401793752</v>
+    <v>45604.041322245313</v>
     <v>0</v>
-    <v>86.46</v>
-    <v>6329991448</v>
+    <v>88.3</v>
+    <v>6131766971</v>
     <v>LANTHEUS HOLDINGS, INC.</v>
     <v>LANTHEUS HOLDINGS, INC.</v>
-    <v>99.72</v>
-    <v>15.1523</v>
-    <v>114.96</v>
+    <v>91.49</v>
+    <v>14.6778</v>
     <v>91.17</v>
+    <v>88.314999999999998</v>
+    <v>88.57</v>
     <v>69430640</v>
     <v>LNTH</v>
     <v>LANTHEUS HOLDINGS, INC. (XNAS:LNTH)</v>
-    <v>454</v>
-    <v>595274</v>
+    <v>2878978</v>
+    <v>806946</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2010,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2030,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2046,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2057,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2129,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2180,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2187,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2854,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,18 +2877,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="e" vm="1">
+      <c r="A1" s="70" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -2887,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>91.17</v>
+        <v>88.314999999999998</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>4.1644680578947373</v>
+        <v>4.0340572177631575</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2934,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-0.20694199999999999</v>
+        <v>-3.1315000000000003E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>13.149130552555048</v>
+        <v>12.737363878271708</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2961,7 +2973,7 @@
       </c>
       <c r="I4" s="45">
         <f>NPV(I6,F18,G18,H18,I18,(J18+I3))</f>
-        <v>9689306308.7676086</v>
+        <v>10104124490.585791</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>5</v>
@@ -2982,21 +2994,21 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>6329991448</v>
+        <v>6131766971</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>8.0094894940211936E-3</v>
+        <v>8.2684159785888903E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="44">
         <f>F20</f>
-        <v>3.3355263157894735E-2</v>
+        <v>0.33355263157894738</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="I5" s="45">
         <f>I4+G4-G5</f>
-        <v>9784406308.7676086</v>
+        <v>10199224490.585791</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>135.48282502483616</v>
+        <v>141.2267339929289</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3031,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.51900000000000002</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3064,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.48604612290047333</v>
+        <v>0.59912510890481685</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3130,19 +3142,19 @@
       <c r="E9" s="58">
         <v>2023</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="59">
         <v>2024</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="59">
         <v>2025</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="59">
         <v>2026</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="59">
         <v>2027</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="60">
         <v>2028</v>
       </c>
       <c r="K9" s="13"/>
@@ -3170,22 +3182,22 @@
       <c r="E10" s="24">
         <v>1296000000</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="61">
         <v>1520000000</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="61">
         <v>1656000000</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="61">
         <v>1853000000</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="61">
         <v>2000000000</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="61">
         <v>2151000000</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="62" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="2"/>
@@ -3231,7 +3243,7 @@
         <f t="shared" si="0"/>
         <v>7.5499999999999901E-2</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="63">
         <f>AVERAGE(F11:J11)</f>
         <v>0.10722107158702721</v>
       </c>
@@ -3264,7 +3276,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3293,7 +3305,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="30"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3327,7 +3339,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3352,22 +3364,22 @@
       <c r="E15" s="24">
         <v>327000000</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="61">
         <v>481400000</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="61">
         <v>546000000</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="61">
         <v>618000000</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="61">
         <v>714400000</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="61">
         <v>877815857.14285696</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="62" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
@@ -3413,7 +3425,7 @@
         <f t="shared" si="1"/>
         <v>0.22874560070388705</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="65">
         <f>AVERAGE(F16:J16)</f>
         <v>0.22459279631706425</v>
       </c>
@@ -3465,7 +3477,7 @@
         <f t="shared" si="2"/>
         <v>0.4080966327953775</v>
       </c>
-      <c r="K17" s="72"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3490,22 +3502,22 @@
       <c r="E18" s="24">
         <v>238000000</v>
       </c>
-      <c r="F18" s="66">
-        <v>50700000</v>
-      </c>
-      <c r="G18" s="66">
+      <c r="F18" s="61">
+        <v>507000000</v>
+      </c>
+      <c r="G18" s="61">
         <v>606500000</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="61">
         <v>681000000</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="61">
         <v>809000000</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="61">
         <v>887000000</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
@@ -3532,11 +3544,11 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" si="3"/>
-        <v>-0.78697478991596637</v>
+        <v>1.1302521008403361</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="3"/>
-        <v>10.962524654832347</v>
+        <v>0.19625246548323472</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="3"/>
@@ -3550,9 +3562,9 @@
         <f t="shared" si="3"/>
         <v>9.6415327564894904E-2</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="65">
         <f>AVERAGE(F19:J19)</f>
-        <v>2.1165520040832089</v>
+        <v>0.34674294436464698</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3584,7 +3596,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="4"/>
-        <v>3.3355263157894735E-2</v>
+        <v>0.33355263157894738</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" si="4"/>
@@ -3602,7 +3614,7 @@
         <f t="shared" si="4"/>
         <v>0.41236634123663413</v>
       </c>
-      <c r="K20" s="73"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3632,7 +3644,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="62" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
@@ -3662,7 +3674,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
-      <c r="K22" s="74">
+      <c r="K22" s="69">
         <f>AVERAGE(C22:E22)</f>
         <v>8.031481703046647E-3</v>
       </c>
@@ -3696,17 +3708,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="str" cm="1">
+      <c r="A25" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62" cm="1">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2007</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3741,14 +3753,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="str" cm="1">
+      <c r="A27" s="74" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>Lantheus Holdings, Inc. is a radiopharmaceutical-focused company engaged in delivering science to enable clinicians to find, fight and follow disease to deliver patient outcomes. The Company classifies its products in three categories: Radiopharmaceutical Oncology, Precision Diagnostics, and Strategic Partnerships. Its Radiopharmaceutical Oncology diagnostics and therapeutic candidates help healthcare professionals (HCPs) find, fight, and follow cancer, with a focus in prostate cancer. Its pipeline also includes breast and other cancers. Its Precision Diagnostic products assist HCPs to find and follow diseases, with a focus in cardiology. Its Strategic Partnerships focus on enabling precision medicine through the use of biomarkers, digital solutions and pharma solutions platforms. Its commercial products include PYLARIFY, DEFINITY, Ga-DOTA-RM2, and others. Its pipeline includes B amyloid positron emission tomography (PET) imaging agent, NAV-4694, also known as F18-flutafuranol.</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3764,11 +3776,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3784,11 +3796,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3804,11 +3816,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3824,11 +3836,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3844,11 +3856,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3864,11 +3876,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3884,11 +3896,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3904,11 +3916,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>

--- a/Healthcare/LNTH.xlsx
+++ b/Healthcare/LNTH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A8B8A-F18C-E149-98D2-9EE463664964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50C063-06C9-1E44-AA6E-C7719AC015CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,11 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>126.8899</v>
     <v>50.2</v>
-    <v>0.48089999999999999</v>
-    <v>-2.855</v>
-    <v>-3.1315000000000003E-2</v>
-    <v>0.255</v>
-    <v>2.8870000000000002E-3</v>
+    <v>0.48149999999999998</v>
+    <v>-0.61</v>
+    <v>-7.9400000000000009E-3</v>
+    <v>0.28000000000000003</v>
+    <v>3.6740000000000002E-3</v>
     <v>USD</v>
     <v>Lantheus Holdings, Inc. is a radiopharmaceutical-focused company engaged in delivering science to enable clinicians to find, fight and follow disease to deliver patient outcomes. The Company classifies its products in three categories: Radiopharmaceutical Oncology, Precision Diagnostics, and Strategic Partnerships. Its Radiopharmaceutical Oncology diagnostics and therapeutic candidates help healthcare professionals (HCPs) find, fight, and follow cancer, with a focus in prostate cancer. Its pipeline also includes breast and other cancers. Its Precision Diagnostic products assist HCPs to find and follow diseases, with a focus in cardiology. Its Strategic Partnerships focus on enabling precision medicine through the use of biomarkers, digital solutions and pharma solutions platforms. Its commercial products include PYLARIFY, DEFINITY, Ga-DOTA-RM2, and others. Its pipeline includes B amyloid positron emission tomography (PET) imaging agent, NAV-4694, also known as F18-flutafuranol.</v>
     <v>834</v>
@@ -1954,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>331 Treble Cove Rd, NORTH BILLERICA, MA, 01862 US</v>
-    <v>95.43</v>
+    <v>77.17</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45604.041322245313</v>
+    <v>45615.037006828126</v>
     <v>0</v>
-    <v>88.3</v>
-    <v>6131766971</v>
+    <v>75.38</v>
+    <v>5299335744</v>
     <v>LANTHEUS HOLDINGS, INC.</v>
     <v>LANTHEUS HOLDINGS, INC.</v>
-    <v>91.49</v>
-    <v>14.6778</v>
-    <v>91.17</v>
-    <v>88.314999999999998</v>
-    <v>88.57</v>
-    <v>69430640</v>
+    <v>76.819999999999993</v>
+    <v>12.769</v>
+    <v>76.83</v>
+    <v>76.22</v>
+    <v>76.5</v>
+    <v>69526840</v>
     <v>LNTH</v>
     <v>LANTHEUS HOLDINGS, INC. (XNAS:LNTH)</v>
-    <v>2878978</v>
-    <v>806946</v>
+    <v>1115190</v>
+    <v>1215838</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>88.314999999999998</v>
+        <v>76.22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>4.0340572177631575</v>
+        <v>3.4864050947368419</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>72218794.57395409</v>
+        <v>72318857.716653258</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.1315000000000003E-2</v>
+        <v>-7.9400000000000009E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>12.737363878271708</v>
+        <v>11.00817562110511</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>6131766971</v>
+        <v>5299335744</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>8.2684159785888903E-2</v>
+        <v>9.5672368102744612E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>141.2267339929289</v>
+        <v>141.03132727215572</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.48089999999999999</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.59912510890481685</v>
+        <v>0.85031917176798388</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
